--- a/wiki/docs/Hardware/Intel_4189_P4/CPUs/4189_ES.xlsx
+++ b/wiki/docs/Hardware/Intel_4189_P4/CPUs/4189_ES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\source\repos\github\mixa3607\mixa3607\wiki\docs\Hardware\Intel_4189_P4\CPUs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\source\repos\github\mixa3607\wiki\wiki\docs\Hardware\Intel_4189_P4\CPUs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921856C-4524-40C2-9F67-E336FCB9B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE9BEC-3C3A-4711-B8D3-038B0B8E7673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="5745" windowWidth="20010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15885" yWindow="6435" windowWidth="20010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>code</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t>stepping</t>
-  </si>
-  <si>
-    <t>Q079</t>
-  </si>
-  <si>
-    <t>6444Y</t>
-  </si>
-  <si>
-    <t>3 ES1</t>
   </si>
   <si>
     <t>QSTL</t>
@@ -311,22 +302,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF356854"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF356854"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF356854"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF356854"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
@@ -350,13 +325,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Лист1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:I40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:I39">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="code"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
@@ -588,11 +579,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,37 +624,35 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="10">
+        <v>26</v>
+      </c>
+      <c r="D2" s="10">
+        <v>56</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10">
-        <v>26</v>
-      </c>
-      <c r="D3" s="10">
-        <v>56</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="10">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -672,11 +661,17 @@
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>16</v>
+      </c>
       <c r="E4" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -686,111 +681,117 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="16">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>230</v>
+      </c>
+      <c r="H5" s="17">
+        <v>36</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G6" s="19">
+        <v>185</v>
+      </c>
+      <c r="H6" s="19">
+        <v>36</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="16">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="D7" s="16">
+        <v>32</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>185</v>
+      </c>
+      <c r="H7" s="17">
         <v>24</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="16">
-        <v>2.8</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="F8" s="10">
         <v>3.5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G8" s="19">
         <v>230</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H8" s="19">
         <v>36</v>
       </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="G7" s="19">
-        <v>185</v>
-      </c>
-      <c r="H7" s="19">
-        <v>36</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="16">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16">
-        <v>32</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2.8</v>
-      </c>
-      <c r="F8" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="G8" s="17">
-        <v>185</v>
-      </c>
-      <c r="H8" s="17">
-        <v>24</v>
-      </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10">
         <v>24</v>
@@ -799,7 +800,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="10">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F9" s="10">
         <v>3.5</v>
@@ -814,89 +815,89 @@
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="19">
+        <v>185</v>
+      </c>
+      <c r="H10" s="19">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10">
+      <c r="C11" s="16">
+        <v>36</v>
+      </c>
+      <c r="D11" s="16">
+        <v>72</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="17">
+        <v>250</v>
+      </c>
+      <c r="H11" s="17">
+        <v>54</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="10">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10">
+        <v>64</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="G12" s="19">
+        <v>250</v>
+      </c>
+      <c r="H12" s="19">
         <v>48</v>
       </c>
-      <c r="E10" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F10" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="G10" s="19">
-        <v>230</v>
-      </c>
-      <c r="H10" s="19">
-        <v>36</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10">
-        <v>16</v>
-      </c>
-      <c r="D11" s="10">
-        <v>32</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="19">
-        <v>185</v>
-      </c>
-      <c r="H11" s="19">
-        <v>24</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="16">
-        <v>36</v>
-      </c>
-      <c r="D12" s="16">
-        <v>72</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2.4</v>
-      </c>
-      <c r="F12" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="G12" s="17">
-        <v>250</v>
-      </c>
-      <c r="H12" s="17">
-        <v>54</v>
-      </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="10">
         <v>32</v>
@@ -905,153 +906,141 @@
         <v>64</v>
       </c>
       <c r="E13" s="10">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="F13" s="10">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="G13" s="19">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="H13" s="19">
         <v>48</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C14" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E14" s="10">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="10">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G14" s="19">
         <v>205</v>
       </c>
       <c r="H14" s="19">
-        <v>48</v>
-      </c>
-      <c r="I14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10">
+        <v>72</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="G16" s="19">
+        <v>250</v>
+      </c>
+      <c r="H16" s="19">
+        <v>54</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10">
         <v>28</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D17" s="10">
         <v>56</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E17" s="10">
         <v>1.5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F17" s="10">
         <v>3.1</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G17" s="19">
         <v>205</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H17" s="19">
         <v>42</v>
       </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="10">
-        <v>36</v>
-      </c>
-      <c r="D17" s="10">
-        <v>72</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="G17" s="19">
-        <v>250</v>
-      </c>
-      <c r="H17" s="19">
-        <v>54</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10">
-        <v>56</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G18" s="19">
-        <v>205</v>
-      </c>
-      <c r="H18" s="19">
-        <v>42</v>
-      </c>
-      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="6"/>
@@ -1061,144 +1050,144 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10">
+        <v>64</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="G20" s="19">
+        <v>205</v>
+      </c>
+      <c r="H20" s="19">
+        <v>48</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="C21" s="10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10">
+        <v>16</v>
+      </c>
+      <c r="D23" s="10">
+        <v>32</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10">
+        <v>76</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F24" s="10">
         <v>3.4</v>
       </c>
-      <c r="G21" s="19">
-        <v>205</v>
-      </c>
-      <c r="H21" s="19">
-        <v>48</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="10">
-        <v>38</v>
-      </c>
-      <c r="D22" s="10">
-        <v>76</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="G24" s="19">
+        <v>270</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10">
-        <v>16</v>
-      </c>
-      <c r="D24" s="10">
-        <v>32</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="10">
-        <v>38</v>
-      </c>
-      <c r="D25" s="10">
-        <v>76</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F25" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="G25" s="19">
-        <v>270</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20" t="s">
-        <v>40</v>
+      <c r="B25" s="22"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="6"/>
@@ -1207,14 +1196,10 @@
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1356,23 +1341,12 @@
       <c r="H39" s="7"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="18"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:H40" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:H39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:B40 I2:I40" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:B39 I2:I39" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
